--- a/NotationSaé.xlsx
+++ b/NotationSaé.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IUT-ACY\mesCours\R1.01-PROG-C#-BASES\SAE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gimenezm\source\repos\SAE1_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1349F746-D1F3-4CAB-B10F-E1E0EAB1AADB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49412560-02AD-416A-AE24-5A63692FBD52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="JNcTaoBHhGav1iQpm+xFzSQYyCUQnHIABW6cDVXpzOkqeTamj08E8xeYs10YDNtaFxPQkN1Glvouzy3BQArkgQ==" workbookSaltValue="uLbNkXbSWSy11GYw+b70Fw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="6910" activeTab="2" xr2:uid="{5D121593-54A3-4842-9550-1D9438ECD38B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="6915" xr2:uid="{5D121593-54A3-4842-9550-1D9438ECD38B}"/>
   </bookViews>
   <sheets>
     <sheet name="Jeu et livrables" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
   <si>
     <t>Qualité des explications audio et étendue de la démo</t>
   </si>
@@ -208,9 +208,6 @@
     <t>nom etudiant 2</t>
   </si>
   <si>
-    <t>nom etudiant 3</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -227,6 +224,15 @@
   </si>
   <si>
     <t xml:space="preserve">*attention la somme des taux doit être égale à 1 </t>
+  </si>
+  <si>
+    <t>BASTARD</t>
+  </si>
+  <si>
+    <t>GIMENEZ</t>
+  </si>
+  <si>
+    <t>KOMPANIETS</t>
   </si>
 </sst>
 </file>
@@ -602,6 +608,10 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -652,10 +662,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,38 +987,38 @@
   </sheetPr>
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="73" workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" style="1"/>
-    <col min="4" max="4" width="11.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" style="1"/>
-    <col min="6" max="7" width="15.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.90625" style="1"/>
-    <col min="9" max="9" width="25.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.90625" style="1"/>
-    <col min="11" max="11" width="22.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.90625" style="1"/>
-    <col min="13" max="13" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="1" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1"/>
+    <col min="6" max="7" width="15.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="1"/>
+    <col min="9" max="9" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="1"/>
+    <col min="11" max="11" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="1"/>
+    <col min="13" max="13" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
@@ -1035,8 +1041,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51" t="s">
+    <row r="6" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1055,12 +1061,12 @@
         <f>E6*C6/100</f>
         <v>0</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="51"/>
+    <row r="7" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52"/>
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1077,10 +1083,10 @@
         <f t="shared" ref="G7:G12" si="1">E7*C7/100</f>
         <v>0</v>
       </c>
-      <c r="H7" s="53"/>
+      <c r="H7" s="54"/>
     </row>
-    <row r="8" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="51"/>
+    <row r="8" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52"/>
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1097,10 +1103,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H8" s="54"/>
+      <c r="H8" s="55"/>
     </row>
-    <row r="9" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="51" t="s">
+    <row r="9" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1109,122 +1115,134 @@
       <c r="C9" s="9">
         <v>1</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="27">
+        <v>100</v>
+      </c>
       <c r="E9" s="45"/>
       <c r="F9" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="51" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="51"/>
+    <row r="10" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="52"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="27">
+        <v>100</v>
+      </c>
       <c r="E10" s="45"/>
       <c r="F10" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="50"/>
+      <c r="H10" s="51"/>
     </row>
-    <row r="11" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="51"/>
+    <row r="11" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="9">
         <v>1</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="27">
+        <v>100</v>
+      </c>
       <c r="E11" s="45"/>
       <c r="F11" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="50"/>
+      <c r="H11" s="51"/>
     </row>
-    <row r="12" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="51"/>
+    <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="52"/>
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="9">
         <v>1</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="27">
+        <v>100</v>
+      </c>
       <c r="E12" s="45"/>
       <c r="F12" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H12" s="50"/>
+      <c r="H12" s="51"/>
     </row>
-    <row r="13" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="51"/>
+    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="52"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="9">
         <v>5</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="27">
+        <v>75</v>
+      </c>
       <c r="E13" s="45"/>
       <c r="F13" s="18">
         <f t="shared" ref="F13:F16" si="2">D13*C13/100</f>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="G13" s="18">
         <f t="shared" ref="G13:G16" si="3">E13*C13/100</f>
         <v>0</v>
       </c>
-      <c r="H13" s="50"/>
+      <c r="H13" s="51"/>
     </row>
-    <row r="14" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="51"/>
+    <row r="14" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="52"/>
       <c r="B14" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="9">
         <v>5</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="27">
+        <v>50</v>
+      </c>
       <c r="E14" s="45"/>
       <c r="F14" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G14" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H14" s="50"/>
+      <c r="H14" s="51"/>
     </row>
-    <row r="15" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="51"/>
+    <row r="15" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="52"/>
       <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
@@ -1236,36 +1254,38 @@
       <c r="E15" s="45"/>
       <c r="F15" s="18">
         <f>SUM(F6:F14)</f>
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="G15" s="18">
         <f>SUM(G6:G14)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="50"/>
+      <c r="H15" s="51"/>
     </row>
-    <row r="16" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="51"/>
+    <row r="16" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="52"/>
       <c r="B16" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="9">
         <v>2</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="27">
+        <v>50</v>
+      </c>
       <c r="E16" s="45"/>
       <c r="F16" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H16" s="50"/>
+      <c r="H16" s="51"/>
     </row>
-    <row r="17" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="51"/>
+    <row r="17" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="52"/>
       <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
@@ -1273,13 +1293,13 @@
       <c r="D17" s="10"/>
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
-      <c r="G17" s="67">
+      <c r="G17" s="50">
         <v>0</v>
       </c>
-      <c r="H17" s="50"/>
+      <c r="H17" s="51"/>
     </row>
-    <row r="18" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="51"/>
+    <row r="18" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="52"/>
       <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
@@ -1291,13 +1311,13 @@
       <c r="E18" s="45"/>
       <c r="F18" s="25">
         <f>F15+F16-F17</f>
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="G18" s="25">
         <f>G15+G16-G17</f>
         <v>0</v>
       </c>
-      <c r="H18" s="50"/>
+      <c r="H18" s="51"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="YHdE12ZG+TFoPMmO6C8Xdl7LUyMmPDFGAT8EsckvBpabxRfUnH92IB77mdTBPc2cX5e/W3esOOgCnkEpRXPIsg==" saltValue="auTdgsozH/I2mLvgnqK0wA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -1328,23 +1348,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19A87AB-8B93-4DD4-A117-0662B428885D}">
   <dimension ref="A1:XFD15"/>
   <sheetViews>
-    <sheetView zoomScale="61" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="13"/>
+    <col min="1" max="1" width="10.85546875" style="13"/>
     <col min="2" max="2" width="47" style="13" customWidth="1"/>
-    <col min="3" max="7" width="10.90625" style="13"/>
-    <col min="8" max="8" width="37.26953125" style="13" customWidth="1"/>
-    <col min="9" max="12" width="10.90625" style="13"/>
-    <col min="13" max="13" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.90625" style="13"/>
+    <col min="3" max="7" width="10.85546875" style="13"/>
+    <col min="8" max="8" width="37.28515625" style="13" customWidth="1"/>
+    <col min="9" max="12" width="10.85546875" style="13"/>
+    <col min="13" max="13" width="11.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16384" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
         <v>33</v>
@@ -17732,12 +17752,12 @@
       <c r="XFC1" s="11"/>
       <c r="XFD1" s="11"/>
     </row>
-    <row r="2" spans="1:16384" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16384" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16384" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16384" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
         <v>4</v>
@@ -17761,7 +17781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16384" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="17" t="s">
         <v>2</v>
@@ -17769,22 +17789,24 @@
       <c r="C5" s="18">
         <v>1</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="27">
+        <v>75</v>
+      </c>
       <c r="E5" s="45"/>
       <c r="F5" s="18">
         <f t="shared" ref="F5:F11" si="0">D5*C5/100</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G5" s="18">
         <f>E5*C5/100</f>
         <v>0</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="58" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="55" t="s">
+    <row r="6" spans="1:16384" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -17803,29 +17825,31 @@
         <f t="shared" ref="G6:G11" si="1">E6*C6/100</f>
         <v>0</v>
       </c>
-      <c r="H6" s="58"/>
+      <c r="H6" s="59"/>
     </row>
-    <row r="7" spans="1:16384" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="56"/>
+    <row r="7" spans="1:16384" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="57"/>
       <c r="B7" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="18">
         <v>5</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="27">
+        <v>75</v>
+      </c>
       <c r="E7" s="45"/>
       <c r="F7" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="G7" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="58"/>
+      <c r="H7" s="59"/>
     </row>
-    <row r="8" spans="1:16384" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16384" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="17" t="s">
         <v>32</v>
@@ -17833,21 +17857,23 @@
       <c r="C8" s="18">
         <v>4</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="27">
+        <v>75</v>
+      </c>
       <c r="E8" s="45"/>
       <c r="F8" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H8" s="58" t="s">
+      <c r="H8" s="59" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16384" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="17" t="s">
         <v>24</v>
@@ -17855,19 +17881,21 @@
       <c r="C9" s="18">
         <v>3</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="27">
+        <v>75</v>
+      </c>
       <c r="E9" s="45"/>
       <c r="F9" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="G9" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="58"/>
+      <c r="H9" s="59"/>
     </row>
-    <row r="10" spans="1:16384" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16384" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="17" t="s">
         <v>25</v>
@@ -17875,19 +17903,21 @@
       <c r="C10" s="18">
         <v>3</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="27">
+        <v>50</v>
+      </c>
       <c r="E10" s="45"/>
       <c r="F10" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G10" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="58"/>
+      <c r="H10" s="59"/>
     </row>
-    <row r="11" spans="1:16384" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16384" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="17" t="s">
         <v>3</v>
@@ -17895,19 +17925,21 @@
       <c r="C11" s="18">
         <v>4</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="27">
+        <v>75</v>
+      </c>
       <c r="E11" s="45"/>
       <c r="F11" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="58"/>
+      <c r="H11" s="59"/>
     </row>
-    <row r="12" spans="1:16384" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16384" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="20" t="s">
         <v>1</v>
@@ -17920,7 +17952,7 @@
       <c r="E12" s="46"/>
       <c r="F12" s="16">
         <f>SUM(F5:F11)</f>
-        <v>0</v>
+        <v>14.25</v>
       </c>
       <c r="G12" s="16">
         <f>SUM(G5:G11)</f>
@@ -17928,7 +17960,7 @@
       </c>
       <c r="H12" s="26"/>
     </row>
-    <row r="13" spans="1:16384" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16384" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="21" t="s">
         <v>40</v>
@@ -17948,7 +17980,7 @@
       </c>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="1:16384" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16384" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="5" t="s">
         <v>48</v>
@@ -17960,7 +17992,7 @@
       <c r="G14" s="47"/>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="1:16384" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16384" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="20" t="s">
         <v>41</v>
@@ -17973,7 +18005,7 @@
       <c r="E15" s="45"/>
       <c r="F15" s="25">
         <f>F12+F13-F14</f>
-        <v>0</v>
+        <v>14.25</v>
       </c>
       <c r="G15" s="18">
         <f>G12+G13-G14</f>
@@ -18009,34 +18041,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A455AA6B-8636-401C-8E5D-7A6A458CEC82}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.08984375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" style="13"/>
-    <col min="6" max="6" width="12.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.90625" style="13"/>
+    <col min="3" max="3" width="17.140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="13"/>
+    <col min="6" max="6" width="12.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F2" s="59" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="60"/>
+      <c r="G2" s="61"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="31" t="s">
         <v>45</v>
@@ -18052,7 +18084,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>47</v>
       </c>
@@ -18074,10 +18106,10 @@
         <v>40</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="31" t="s">
         <v>49</v>
@@ -18095,7 +18127,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>47</v>
       </c>
@@ -18108,23 +18140,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="35"/>
     </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="61" t="s">
+      <c r="B9" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="62"/>
+      <c r="E9" s="63"/>
     </row>
-    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="31" t="s">
         <v>17</v>
@@ -18139,14 +18171,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B11" s="34">
         <v>0.33300000000000002</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="44">
+        <v>0.4</v>
+      </c>
       <c r="D11" s="37">
         <f>MIN(ROUND((C11-B11 + 1)*$B$6,1),20)</f>
         <v>0</v>
@@ -18156,14 +18190,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B12" s="34">
         <v>0.33300000000000002</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="44">
+        <v>0.3</v>
+      </c>
       <c r="D12" s="37">
         <f>MIN(ROUND((C12-B12 + 1)*$B$6,1),20)</f>
         <v>0</v>
@@ -18173,14 +18209,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B13" s="34">
         <v>0.33300000000000002</v>
       </c>
-      <c r="C13" s="44"/>
+      <c r="C13" s="44">
+        <v>0.3</v>
+      </c>
       <c r="D13" s="37">
         <f>MIN(ROUND((C13-B13 + 1)*$B$6,1),20)</f>
         <v>0</v>
@@ -18190,9 +18228,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="34">
         <f>ROUNDUP(SUM(B11:B13),2)</f>
@@ -18200,29 +18238,29 @@
       </c>
       <c r="C14" s="39">
         <f>ROUNDUP(SUM(C11:C13),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
     </row>
-    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65" t="s">
+      <c r="B16" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="66"/>
+      <c r="E16" s="67"/>
     </row>
-    <row r="17" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="31" t="s">
         <v>17</v>
@@ -18237,7 +18275,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>54</v>
       </c>
@@ -18254,7 +18292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>55</v>
       </c>
@@ -18271,9 +18309,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="34">
         <f>ROUNDUP(SUM(B18:B19),2)</f>
@@ -18284,7 +18322,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
@@ -18318,9 +18356,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>35</v>
       </c>
@@ -18337,7 +18375,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>0</v>
       </c>
@@ -18368,9 +18406,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.90625" style="48"/>
+    <col min="1" max="16384" width="10.85546875" style="48"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NotationSaé.xlsx
+++ b/NotationSaé.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dolph\source\repos\SAE1_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D29B1A6-A52D-4336-9ECC-451FF05574DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBB8758-B3D7-497F-A3F8-9DCF24AB8CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="JNcTaoBHhGav1iQpm+xFzSQYyCUQnHIABW6cDVXpzOkqeTamj08E8xeYs10YDNtaFxPQkN1Glvouzy3BQArkgQ==" workbookSaltValue="uLbNkXbSWSy11GYw+b70Fw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{5D121593-54A3-4842-9550-1D9438ECD38B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5D121593-54A3-4842-9550-1D9438ECD38B}"/>
   </bookViews>
   <sheets>
     <sheet name="Jeu et livrables" sheetId="2" r:id="rId1"/>
@@ -963,8 +963,8 @@
   </sheetPr>
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1027,11 +1027,13 @@
       <c r="C6" s="17">
         <v>3</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="16">
+        <v>75</v>
+      </c>
       <c r="E6" s="33"/>
       <c r="F6" s="9">
         <f t="shared" ref="F6:F12" si="0">D6*C6/100</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="G6" s="9">
         <f>E6*C6/100</f>
@@ -1049,11 +1051,13 @@
       <c r="C7" s="17">
         <v>2</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="16">
+        <v>75</v>
+      </c>
       <c r="E7" s="33"/>
       <c r="F7" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" ref="G7:G12" si="1">E7*C7/100</f>
@@ -1069,11 +1073,13 @@
       <c r="C8" s="9">
         <v>1</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="16">
+        <v>75</v>
+      </c>
       <c r="E8" s="33"/>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G8" s="9">
         <f t="shared" si="1"/>
@@ -1230,7 +1236,7 @@
       <c r="E15" s="33"/>
       <c r="F15" s="9">
         <f>SUM(F6:F14)</f>
-        <v>10.25</v>
+        <v>14.75</v>
       </c>
       <c r="G15" s="9">
         <f>SUM(G6:G14)</f>
@@ -1287,7 +1293,7 @@
       <c r="E18" s="33"/>
       <c r="F18" s="9">
         <f>F15+F16-F17</f>
-        <v>11.25</v>
+        <v>15.75</v>
       </c>
       <c r="G18" s="9">
         <f>G15+G16-G17</f>
@@ -1324,7 +1330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19A87AB-8B93-4DD4-A117-0662B428885D}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
